--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H2">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I2">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J2">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1091.459794521936</v>
+        <v>1346.27357226368</v>
       </c>
       <c r="R2">
-        <v>4365.839178087745</v>
+        <v>5385.094289054721</v>
       </c>
       <c r="S2">
-        <v>0.04472560816097042</v>
+        <v>0.05291445701907906</v>
       </c>
       <c r="T2">
-        <v>0.02673958699286953</v>
+        <v>0.03205923145005411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H3">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I3">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J3">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>68.65437212115067</v>
+        <v>76.89092725712933</v>
       </c>
       <c r="R3">
-        <v>411.9262327269041</v>
+        <v>461.345563542776</v>
       </c>
       <c r="S3">
-        <v>0.002813304311747897</v>
+        <v>0.003022150734685612</v>
       </c>
       <c r="T3">
-        <v>0.002522937031196502</v>
+        <v>0.002746541361427071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H4">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I4">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J4">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>204.2195806943367</v>
+        <v>258.5909825006219</v>
       </c>
       <c r="R4">
-        <v>1225.31748416602</v>
+        <v>1551.545895003731</v>
       </c>
       <c r="S4">
-        <v>0.008368466700079635</v>
+        <v>0.01016375996005261</v>
       </c>
       <c r="T4">
-        <v>0.007504738980351608</v>
+        <v>0.009236861284751501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H5">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I5">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J5">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>516.8895116800188</v>
+        <v>367.3750005233138</v>
       </c>
       <c r="R5">
-        <v>2067.558046720075</v>
+        <v>1469.500002093255</v>
       </c>
       <c r="S5">
-        <v>0.02118098887191876</v>
+        <v>0.01443944906560762</v>
       </c>
       <c r="T5">
-        <v>0.01266323517608227</v>
+        <v>0.008748415190931105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H6">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I6">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J6">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>729.0576533065165</v>
+        <v>460.4150805784292</v>
       </c>
       <c r="R6">
-        <v>4374.345919839099</v>
+        <v>2762.490483470575</v>
       </c>
       <c r="S6">
-        <v>0.02987517001744084</v>
+        <v>0.01809633234591302</v>
       </c>
       <c r="T6">
-        <v>0.02679168849084222</v>
+        <v>0.01644601134805777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2726235</v>
+        <v>18.2248715</v>
       </c>
       <c r="H7">
-        <v>32.545247</v>
+        <v>36.449743</v>
       </c>
       <c r="I7">
-        <v>0.1150896855633734</v>
+        <v>0.1050100244082758</v>
       </c>
       <c r="J7">
-        <v>0.08350961674642161</v>
+        <v>0.07502966121475142</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>198.3061527080993</v>
+        <v>162.167020692094</v>
       </c>
       <c r="R7">
-        <v>1189.836916248596</v>
+        <v>973.0021241525639</v>
       </c>
       <c r="S7">
-        <v>0.008126147501215868</v>
+        <v>0.006373875282937848</v>
       </c>
       <c r="T7">
-        <v>0.007287430075079489</v>
+        <v>0.005792600579529862</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J8">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>1605.16850994528</v>
+        <v>1767.82516040431</v>
       </c>
       <c r="R8">
-        <v>9631.011059671679</v>
+        <v>10606.95096242586</v>
       </c>
       <c r="S8">
-        <v>0.06577625503794815</v>
+        <v>0.06948328363170085</v>
       </c>
       <c r="T8">
-        <v>0.05898734414037173</v>
+        <v>0.06314665586727841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J9">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
         <v>100.9673803396533</v>
@@ -1013,10 +1013,10 @@
         <v>908.7064230568801</v>
       </c>
       <c r="S9">
-        <v>0.004137419914848036</v>
+        <v>0.003968460955768647</v>
       </c>
       <c r="T9">
-        <v>0.005565581657763115</v>
+        <v>0.005409827195810363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J10">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>300.3379892599333</v>
+        <v>339.5622216290034</v>
       </c>
       <c r="R10">
-        <v>2703.0419033394</v>
+        <v>3056.05999466103</v>
       </c>
       <c r="S10">
-        <v>0.01230718647715021</v>
+        <v>0.01334628485017289</v>
       </c>
       <c r="T10">
-        <v>0.01655540233421371</v>
+        <v>0.01819372687553949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J11">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>760.1697940996249</v>
+        <v>482.4092091005251</v>
       </c>
       <c r="R11">
-        <v>4561.01876459775</v>
+        <v>2894.45525460315</v>
       </c>
       <c r="S11">
-        <v>0.03115007672966747</v>
+        <v>0.01896079807734506</v>
       </c>
       <c r="T11">
-        <v>0.02793500929768346</v>
+        <v>0.01723164088653987</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J12">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>1072.197430355007</v>
+        <v>604.5824418194167</v>
       </c>
       <c r="R12">
-        <v>9649.776873195062</v>
+        <v>5441.24197637475</v>
       </c>
       <c r="S12">
-        <v>0.04393627908416156</v>
+        <v>0.02376274205424098</v>
       </c>
       <c r="T12">
-        <v>0.05910227968488718</v>
+        <v>0.03239349703697924</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.169258034068719</v>
+        <v>0.137891263015346</v>
       </c>
       <c r="J13">
-        <v>0.1842216375056694</v>
+        <v>0.147784958723906</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>291.6413350753466</v>
+        <v>212.94552999748</v>
       </c>
       <c r="R13">
-        <v>2624.77201567812</v>
+        <v>1916.50976997732</v>
       </c>
       <c r="S13">
-        <v>0.0119508168249436</v>
+        <v>0.008369693446117609</v>
       </c>
       <c r="T13">
-        <v>0.01607602039075018</v>
+        <v>0.01140961086175858</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H14">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I14">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J14">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>2353.001953052096</v>
+        <v>2957.654841759406</v>
       </c>
       <c r="R14">
-        <v>14118.01171831258</v>
+        <v>17745.92905055643</v>
       </c>
       <c r="S14">
-        <v>0.09642081539091553</v>
+        <v>0.1162488094736934</v>
       </c>
       <c r="T14">
-        <v>0.08646901251033288</v>
+        <v>0.1056473324681366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H15">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I15">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J15">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>148.0071666381351</v>
+        <v>168.9231876601653</v>
       </c>
       <c r="R15">
-        <v>1332.064499743216</v>
+        <v>1520.308688941488</v>
       </c>
       <c r="S15">
-        <v>0.006065006309254064</v>
+        <v>0.006639422281713602</v>
       </c>
       <c r="T15">
-        <v>0.008158535648717635</v>
+        <v>0.009050895958009139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H16">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I16">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J16">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>440.2627331185645</v>
+        <v>568.1036062694754</v>
       </c>
       <c r="R16">
-        <v>3962.36459806708</v>
+        <v>5112.932456425278</v>
       </c>
       <c r="S16">
-        <v>0.01804099297854903</v>
+        <v>0.02232896379729444</v>
       </c>
       <c r="T16">
-        <v>0.02426841405410829</v>
+        <v>0.03043896285013888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H17">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I17">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J17">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>1114.326003211092</v>
+        <v>807.0933511768651</v>
       </c>
       <c r="R17">
-        <v>6685.956019266551</v>
+        <v>4842.560107061191</v>
       </c>
       <c r="S17">
-        <v>0.04566261481489496</v>
+        <v>0.03172230913619106</v>
       </c>
       <c r="T17">
-        <v>0.04094967664062785</v>
+        <v>0.02882934763066614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H18">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I18">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J18">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>1571.724483785677</v>
+        <v>1011.494929668817</v>
       </c>
       <c r="R18">
-        <v>14145.5203540711</v>
+        <v>9103.454367019351</v>
       </c>
       <c r="S18">
-        <v>0.06440579282133962</v>
+        <v>0.03975618780882826</v>
       </c>
       <c r="T18">
-        <v>0.08663749548208591</v>
+        <v>0.05419584781281691</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.08101266666667</v>
+        <v>40.038578</v>
       </c>
       <c r="H19">
-        <v>105.243038</v>
+        <v>120.115734</v>
       </c>
       <c r="I19">
-        <v>0.2481138162541146</v>
+        <v>0.230698584242564</v>
       </c>
       <c r="J19">
-        <v>0.2700488267490822</v>
+        <v>0.2472512036252546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>427.514386664865</v>
+        <v>356.267911519048</v>
       </c>
       <c r="R19">
-        <v>3847.629479983784</v>
+        <v>3206.411203671432</v>
       </c>
       <c r="S19">
-        <v>0.01751859393916141</v>
+        <v>0.01400289174484325</v>
       </c>
       <c r="T19">
-        <v>0.02356569241320964</v>
+        <v>0.01908881690548695</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H20">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I20">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J20">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>1219.477414959744</v>
+        <v>1228.577591641803</v>
       </c>
       <c r="R20">
-        <v>4877.909659838976</v>
+        <v>4914.310366567212</v>
       </c>
       <c r="S20">
-        <v>0.04997148708215331</v>
+        <v>0.04828848868972756</v>
       </c>
       <c r="T20">
-        <v>0.02987588052882727</v>
+        <v>0.02925650044408675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H21">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I21">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J21">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>76.70686236926933</v>
+        <v>70.168851394616</v>
       </c>
       <c r="R21">
-        <v>460.241174215616</v>
+        <v>421.013108367696</v>
       </c>
       <c r="S21">
-        <v>0.003143277550675254</v>
+        <v>0.00275794366590399</v>
       </c>
       <c r="T21">
-        <v>0.002818853011674436</v>
+        <v>0.002506429035439591</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H22">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I22">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J22">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>228.1725516590133</v>
+        <v>235.984047407771</v>
       </c>
       <c r="R22">
-        <v>1369.03530995408</v>
+        <v>1415.904284446626</v>
       </c>
       <c r="S22">
-        <v>0.009350006468226996</v>
+        <v>0.009275208242222797</v>
       </c>
       <c r="T22">
-        <v>0.008384971885945974</v>
+        <v>0.008429342315966338</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H23">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I23">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J23">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>577.51562511695</v>
+        <v>335.2577831661825</v>
       </c>
       <c r="R23">
-        <v>2310.0625004678</v>
+        <v>1341.03113266473</v>
       </c>
       <c r="S23">
-        <v>0.02366531290062968</v>
+        <v>0.01317710153652496</v>
       </c>
       <c r="T23">
-        <v>0.0141485095237246</v>
+        <v>0.007983597901193577</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H24">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I24">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J24">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>814.5690266128988</v>
+        <v>420.163971503575</v>
       </c>
       <c r="R24">
-        <v>4887.414159677392</v>
+        <v>2520.98382902145</v>
       </c>
       <c r="S24">
-        <v>0.03337923695147104</v>
+        <v>0.01651428719179892</v>
       </c>
       <c r="T24">
-        <v>0.0299340930258722</v>
+        <v>0.01500824307212442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.181244</v>
+        <v>16.631589</v>
       </c>
       <c r="H25">
-        <v>36.362488</v>
+        <v>33.263178</v>
       </c>
       <c r="I25">
-        <v>0.1285885865368279</v>
+        <v>0.09582967796718955</v>
       </c>
       <c r="J25">
-        <v>0.09330448273526253</v>
+        <v>0.06847030378968577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>221.5655360727307</v>
+        <v>147.989808186324</v>
       </c>
       <c r="R25">
-        <v>1329.393216436384</v>
+        <v>887.9388491179438</v>
       </c>
       <c r="S25">
-        <v>0.009079265583671616</v>
+        <v>0.005816648641011323</v>
       </c>
       <c r="T25">
-        <v>0.00814217475921805</v>
+        <v>0.005286191020875097</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H26">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I26">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J26">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>679.8677899858881</v>
+        <v>3002.866338911861</v>
       </c>
       <c r="R26">
-        <v>4079.206739915328</v>
+        <v>18017.19803347117</v>
       </c>
       <c r="S26">
-        <v>0.02785947822245928</v>
+        <v>0.1180258196387368</v>
       </c>
       <c r="T26">
-        <v>0.02498404064705871</v>
+        <v>0.1072622856410384</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H27">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I27">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J27">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>42.76465013291645</v>
+        <v>171.5053923549289</v>
       </c>
       <c r="R27">
-        <v>384.8818511962481</v>
+        <v>1543.54853119436</v>
       </c>
       <c r="S27">
-        <v>0.001752400770587773</v>
+        <v>0.006740914253442487</v>
       </c>
       <c r="T27">
-        <v>0.002357297491325939</v>
+        <v>0.009189250356587063</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H28">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I28">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J28">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>127.2079060496378</v>
+        <v>576.7877888233373</v>
       </c>
       <c r="R28">
-        <v>1144.87115444674</v>
+        <v>5191.090099410036</v>
       </c>
       <c r="S28">
-        <v>0.005212698616576749</v>
+        <v>0.02267029026611868</v>
       </c>
       <c r="T28">
-        <v>0.007012026916521546</v>
+        <v>0.03090426091764567</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H29">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I29">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J29">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>321.9692852971293</v>
+        <v>819.4307944218626</v>
       </c>
       <c r="R29">
-        <v>1931.815711782775</v>
+        <v>4916.584766531176</v>
       </c>
       <c r="S29">
-        <v>0.01319358914212179</v>
+        <v>0.03220722477574792</v>
       </c>
       <c r="T29">
-        <v>0.0118318500000344</v>
+        <v>0.02927004069258396</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H30">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I30">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J30">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>454.1283316284697</v>
+        <v>1026.956909710153</v>
       </c>
       <c r="R30">
-        <v>4087.154984656227</v>
+        <v>9242.612187391376</v>
       </c>
       <c r="S30">
-        <v>0.01860917453593107</v>
+        <v>0.04036391145072629</v>
       </c>
       <c r="T30">
-        <v>0.02503272150153374</v>
+        <v>0.05502429993118733</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>10.13617966666667</v>
+        <v>40.65061833333333</v>
       </c>
       <c r="H31">
-        <v>30.408539</v>
+        <v>121.951855</v>
       </c>
       <c r="I31">
-        <v>0.07168909983387288</v>
+        <v>0.2342251040505189</v>
       </c>
       <c r="J31">
-        <v>0.07802692164876225</v>
+        <v>0.251030751167724</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>123.5244453885836</v>
+        <v>361.7139174017267</v>
       </c>
       <c r="R31">
-        <v>1111.720008497252</v>
+        <v>3255.42525661554</v>
       </c>
       <c r="S31">
-        <v>0.005061758546196219</v>
+        <v>0.01421694366574675</v>
       </c>
       <c r="T31">
-        <v>0.006808985092287902</v>
+        <v>0.0193806136286816</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H32">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I32">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J32">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N32">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O32">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P32">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q32">
-        <v>2534.583287210592</v>
+        <v>2517.231590715647</v>
       </c>
       <c r="R32">
-        <v>15207.49972326355</v>
+        <v>15103.38954429388</v>
       </c>
       <c r="S32">
-        <v>0.1038616168218801</v>
+        <v>0.09893824372562447</v>
       </c>
       <c r="T32">
-        <v>0.09314183257944834</v>
+        <v>0.08991542860539957</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H33">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I33">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J33">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P33">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q33">
-        <v>159.4288905973147</v>
+        <v>143.7689004067858</v>
       </c>
       <c r="R33">
-        <v>1434.860015375832</v>
+        <v>1293.920103661072</v>
       </c>
       <c r="S33">
-        <v>0.006533043293195175</v>
+        <v>0.005650748449636159</v>
       </c>
       <c r="T33">
-        <v>0.008788130446100701</v>
+        <v>0.007703130503297077</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H34">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I34">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J34">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N34">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O34">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P34">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q34">
-        <v>474.2378406854067</v>
+        <v>483.5075155863425</v>
       </c>
       <c r="R34">
-        <v>4268.14056616866</v>
+        <v>4351.567640277082</v>
       </c>
       <c r="S34">
-        <v>0.01943321773651822</v>
+        <v>0.01900396634012233</v>
       </c>
       <c r="T34">
-        <v>0.02614120935550607</v>
+        <v>0.02590630853646528</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H35">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I35">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J35">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N35">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O35">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P35">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q35">
-        <v>1200.318623016663</v>
+        <v>686.9093890044351</v>
       </c>
       <c r="R35">
-        <v>7201.911738099976</v>
+        <v>4121.45633402661</v>
       </c>
       <c r="S35">
-        <v>0.04918640216598457</v>
+        <v>0.02699855221800198</v>
       </c>
       <c r="T35">
-        <v>0.04410976620541521</v>
+        <v>0.02453638050357041</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H36">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I36">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J36">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N36">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O36">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P36">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q36">
-        <v>1693.01457805236</v>
+        <v>860.8736066364056</v>
       </c>
       <c r="R36">
-        <v>15237.13120247124</v>
+        <v>7747.86245972765</v>
       </c>
       <c r="S36">
-        <v>0.06937599260075969</v>
+        <v>0.03383610909083473</v>
       </c>
       <c r="T36">
-        <v>0.09332331739455056</v>
+        <v>0.0461255648474812</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>37.788217</v>
+        <v>34.07644866666666</v>
       </c>
       <c r="H37">
-        <v>113.364651</v>
+        <v>102.229346</v>
       </c>
       <c r="I37">
-        <v>0.2672607777430924</v>
+        <v>0.1963453463161056</v>
       </c>
       <c r="J37">
-        <v>0.290888514614802</v>
+        <v>0.2104331214786783</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N37">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O37">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P37">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q37">
-        <v>460.5057033961853</v>
+        <v>303.2161931040453</v>
       </c>
       <c r="R37">
-        <v>4144.551330565668</v>
+        <v>2728.945737936408</v>
       </c>
       <c r="S37">
-        <v>0.01887050512475465</v>
+        <v>0.01191772649188594</v>
       </c>
       <c r="T37">
-        <v>0.02538425863378115</v>
+        <v>0.01624630848246471</v>
       </c>
     </row>
   </sheetData>
